--- a/文档/工程项目导入模板(1).xlsx
+++ b/文档/工程项目导入模板(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="sheet0" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="114">
   <si>
     <t>房产名称</t>
   </si>
@@ -139,9 +139,6 @@
     <t>0800032807</t>
   </si>
   <si>
-    <t>1999</t>
-  </si>
-  <si>
     <t>4层</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>办公用房</t>
   </si>
   <si>
-    <t>2851939.91</t>
-  </si>
-  <si>
     <t>270100000039</t>
   </si>
   <si>
@@ -175,21 +169,9 @@
     <t/>
   </si>
   <si>
-    <t>2022/4/22 0:00:00</t>
-  </si>
-  <si>
-    <t>1990/1/1 0:00:00</t>
-  </si>
-  <si>
     <t>鞍山电力实业有限公司</t>
   </si>
   <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>2022/3/22 0:00:00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -212,9 +194,6 @@
     </r>
   </si>
   <si>
-    <t>10000.00</t>
-  </si>
-  <si>
     <t>否</t>
   </si>
   <si>
@@ -227,16 +206,10 @@
     <t>5708572232</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
     <t>2层</t>
   </si>
   <si>
     <t>乡镇供电所</t>
-  </si>
-  <si>
-    <t>2260771.38</t>
   </si>
   <si>
     <t>270100001038</t>
@@ -678,18 +651,12 @@
     <t>0800029919</t>
   </si>
   <si>
-    <t>1987</t>
-  </si>
-  <si>
     <t>5层</t>
   </si>
   <si>
     <t>砖混</t>
   </si>
   <si>
-    <t>1778063.12</t>
-  </si>
-  <si>
     <t>270100000592</t>
   </si>
   <si>
@@ -789,12 +756,6 @@
   </si>
   <si>
     <t>0800032284</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>3583940.53</t>
   </si>
   <si>
     <t>270100000224</t>
@@ -1306,13 +1267,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1362,19 +1325,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1382,6 +1348,30 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1402,23 +1392,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1433,15 +1423,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1456,7 +1453,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1469,43 +1466,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1517,15 +1480,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1537,7 +1495,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1549,31 +1561,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,115 +1609,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1711,13 +1633,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1746,17 +1704,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1776,15 +1737,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1800,11 +1752,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1826,6 +1784,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1834,15 +1801,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1851,10 +1809,10 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1863,213 +1821,243 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2407,993 +2395,996 @@
   <dimension ref="A1:AM11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AJ18" sqref="AJ18"/>
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="36.7833333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.7833333333333" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9.175" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.7833333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7833333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7833333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.175" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="9.175" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7833333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.7833333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.7833333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.175" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="2" customWidth="1"/>
     <col min="12" max="12" width="58.5916666666667" style="1" customWidth="1"/>
     <col min="13" max="13" width="9.175" style="1" customWidth="1"/>
     <col min="14" max="14" width="58.5916666666667" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.175" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.175" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="3" customWidth="1"/>
     <col min="17" max="19" width="9.175" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7833333333333" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7833333333333" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7833333333333" style="4" customWidth="1"/>
+    <col min="21" max="21" width="16.7833333333333" style="4" customWidth="1"/>
     <col min="22" max="22" width="20.7833333333333" style="1" customWidth="1"/>
     <col min="23" max="23" width="9.175" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.175" style="1" customWidth="1"/>
-    <col min="26" max="27" width="9.175" style="1" customWidth="1"/>
-    <col min="28" max="28" width="17.7833333333333" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="11.175" style="3" customWidth="1"/>
+    <col min="26" max="27" width="9.175" style="3" customWidth="1"/>
+    <col min="28" max="28" width="17.7833333333333" style="4" customWidth="1"/>
     <col min="29" max="29" width="24.7833333333333" style="1" customWidth="1"/>
     <col min="30" max="30" width="7.175" style="1" customWidth="1"/>
-    <col min="31" max="32" width="9.175" style="1" customWidth="1"/>
-    <col min="33" max="34" width="10.175" style="1" customWidth="1"/>
-    <col min="35" max="35" width="10.25" style="1" customWidth="1"/>
+    <col min="31" max="31" width="9.175" style="1" customWidth="1"/>
+    <col min="32" max="32" width="13.625" style="3" customWidth="1"/>
+    <col min="33" max="34" width="10.175" style="3" customWidth="1"/>
+    <col min="35" max="35" width="10.25" style="3" customWidth="1"/>
     <col min="36" max="39" width="9.175" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="9" style="1"/>
+    <col min="40" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:39">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:39">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10">
+        <v>1999</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="11">
+        <v>2851939.91</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="10">
+        <v>102030412</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="M2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="3">
-        <v>102030412</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="15">
+        <v>2021</v>
+      </c>
+      <c r="P2" s="16">
+        <v>2860000</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="28">
+        <v>44673</v>
+      </c>
+      <c r="U2" s="28">
+        <v>32874</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="6">
-        <v>2021</v>
-      </c>
-      <c r="P2" s="7">
-        <v>2860000</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="W2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="16">
+        <v>2554421.79</v>
+      </c>
+      <c r="Y2" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="28">
+        <v>44642</v>
+      </c>
+      <c r="AC2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" s="3" t="s">
+      <c r="AD2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="AE2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF2" s="11">
+        <v>10000</v>
+      </c>
+      <c r="AG2" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="16">
+        <v>900077</v>
+      </c>
+      <c r="AI2" s="16">
+        <v>100000</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="AK2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X2" s="7">
-        <v>2554421.79</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH2" s="23">
-        <v>900077</v>
-      </c>
-      <c r="AI2" s="23">
-        <v>100000</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>62</v>
+      <c r="AL2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:39">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2018</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="11">
+        <v>2260771.38</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="10">
+        <v>102030413</v>
+      </c>
+      <c r="L3" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="M3" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="N3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="O3" s="20">
+        <v>2018</v>
+      </c>
+      <c r="P3" s="16">
+        <v>2530000</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="V3" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="W3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" s="16">
+        <v>1762000</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB3" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC3" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="AD3" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="3">
-        <v>102030413</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" s="8">
-        <v>2018</v>
-      </c>
-      <c r="P3" s="7">
-        <v>2530000</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" s="7">
-        <v>1762000</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="23"/>
-      <c r="AJ3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>62</v>
+      <c r="AE3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:39">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1987</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1778063.12</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="10">
+        <v>102030414</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="15">
+        <v>2021</v>
+      </c>
+      <c r="P4" s="16">
+        <v>2930000</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="29">
+        <v>44024</v>
+      </c>
+      <c r="U4" s="30">
+        <v>44389</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" s="31">
+        <v>2824457.75</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB4" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC4" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="AD4" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="3">
-        <v>102030414</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="O4" s="6">
-        <v>2021</v>
-      </c>
-      <c r="P4" s="7">
-        <v>2930000</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" s="16">
-        <v>44024</v>
-      </c>
-      <c r="U4" s="17">
-        <v>44389</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X4" s="18">
-        <v>2824457.75</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC4" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF4" s="3">
+      <c r="AE4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF4" s="11">
         <v>500000</v>
       </c>
-      <c r="AG4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>62</v>
+      <c r="AG4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM4" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:39">
-      <c r="A5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="A5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="C5" s="10">
+        <v>1994</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="11">
+        <v>3583940.53</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" s="3">
+      <c r="I5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="10">
         <v>102030415</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="O5" s="6">
+      <c r="L5" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="O5" s="15">
         <v>2021</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="16">
         <v>380000</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T5" s="17">
+      <c r="Q5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" s="30">
         <v>44427</v>
       </c>
-      <c r="U5" s="17">
+      <c r="U5" s="30">
         <v>44452</v>
       </c>
-      <c r="V5" s="19" t="s">
+      <c r="V5" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="X5" s="32">
+        <v>380000</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB5" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC5" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD5" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="W5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X5" s="20">
-        <v>380000</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC5" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD5" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH5" s="22">
+      <c r="AE5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH5" s="31">
         <v>200756</v>
       </c>
-      <c r="AI5" s="23">
+      <c r="AI5" s="16">
         <v>50000</v>
       </c>
-      <c r="AJ5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM5" s="3" t="s">
-        <v>62</v>
+      <c r="AJ5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM5" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:39">
-      <c r="A6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="A6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="12">
         <v>1995</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="10">
+        <v>102030416</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="N6" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6" s="3">
-        <v>102030416</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="O6" s="5">
+      <c r="O6" s="12">
         <v>2020</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="16">
         <v>2530000</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="17">
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="30">
         <v>44287</v>
       </c>
-      <c r="U6" s="17">
+      <c r="U6" s="30">
         <v>44316</v>
       </c>
-      <c r="V6" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="W6" s="5"/>
-      <c r="X6" s="7">
+      <c r="V6" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="W6" s="13"/>
+      <c r="X6" s="16">
         <v>2554421.79</v>
       </c>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK6" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL6" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AM6" s="6" t="s">
-        <v>112</v>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK6" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL6" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM6" s="22" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" ht="71.25" spans="1:39">
-      <c r="A7" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5">
+      <c r="A7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="12">
         <v>1995</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K7" s="3">
+      <c r="I7" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="10">
         <v>102030417</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="M7" s="6" t="s">
+      <c r="L7" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="O7" s="12">
+        <v>2021</v>
+      </c>
+      <c r="P7" s="16">
+        <v>2930000</v>
+      </c>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="W7" s="13"/>
+      <c r="X7" s="16">
+        <v>1762000</v>
+      </c>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD7" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="31">
+        <v>200756</v>
+      </c>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK7" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="N7" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="O7" s="5">
-        <v>2021</v>
-      </c>
-      <c r="P7" s="7">
-        <v>2930000</v>
-      </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="W7" s="5"/>
-      <c r="X7" s="7">
-        <v>1762000</v>
-      </c>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="22">
-        <v>200756</v>
-      </c>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK7" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL7" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AM7" s="6" t="s">
-        <v>112</v>
+      <c r="AL7" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM7" s="22" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8" ht="71.25" spans="1:39">
-      <c r="A8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5">
+      <c r="A8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="12">
         <v>1999</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="5" t="s">
+      <c r="D8" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="10">
+        <v>102030418</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="K8" s="3">
-        <v>102030418</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="O8" s="5">
+      <c r="N8" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" s="12">
         <v>2019</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="16">
         <v>2930000</v>
       </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="W8" s="5"/>
-      <c r="X8" s="18">
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="W8" s="13"/>
+      <c r="X8" s="31">
         <v>2824457.75</v>
       </c>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="8" t="s">
-        <v>101</v>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="AD8" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM8" s="6" t="s">
-        <v>111</v>
+        <v>89</v>
+      </c>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK8" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL8" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM8" s="22" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" ht="71.25" spans="1:39">
-      <c r="A9" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="A9" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="12">
         <v>1997</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="10">
+        <v>102030419</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" s="12">
+        <v>2019</v>
+      </c>
+      <c r="P9" s="16">
+        <v>380000</v>
+      </c>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" s="3">
-        <v>102030419</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="O9" s="5">
-        <v>2019</v>
-      </c>
-      <c r="P9" s="7">
+      <c r="W9" s="13"/>
+      <c r="X9" s="32">
         <v>380000</v>
       </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="W9" s="5"/>
-      <c r="X9" s="20">
-        <v>380000</v>
-      </c>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="8" t="s">
-        <v>101</v>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="AD9" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AM9" s="6" t="s">
-        <v>112</v>
+        <v>89</v>
+      </c>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK9" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL9" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM9" s="22" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="14:14">
-      <c r="N10" s="15"/>
+      <c r="N10" s="26"/>
     </row>
-    <row r="11" ht="57" spans="14:14">
-      <c r="N11" s="15"/>
+    <row r="11" ht="14.25" spans="14:14">
+      <c r="N11" s="26"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A6:A9">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+      <formula1>"技改,大修,维护,小型基建,维保"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3">
+      <formula1>"小型基建,国网大修,国网技改,房屋修缮（省大修）,日常零星维修,维保"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK6:AM6 AK7:AM7 AK8:AM8 AK9:AM9">
       <formula1>"完成,未完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
-      <formula1>"技改,大修,维护,小型基建,维保"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4 M7 M5:M6">
       <formula1>$O$4:$O$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3">
-      <formula1>"小型基建,国网大修,国网技改,房屋修缮（省大修）,日常零星维修,维保"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
